--- a/data/plantillas/plantilla_gastos_operativos.xlsx
+++ b/data/plantillas/plantilla_gastos_operativos.xlsx
@@ -514,7 +514,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>46055</v>
+        <v>46066</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
